--- a/biology/Médecine/Prix_Dr_Lee_Jong-wook/Prix_Dr_Lee_Jong-wook.xlsx
+++ b/biology/Médecine/Prix_Dr_Lee_Jong-wook/Prix_Dr_Lee_Jong-wook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Prix Dr Lee Jong-wook pour la santé publique de l'Organisation mondiale de la santé, est remis « à une ou plusieurs personnes, institutions, organisations gouvernementales ou non gouvernementales ayant apporté une contribution exceptionnelle à la santé publique. Le Prix récompense des travaux dépassant de loin ce qu’on était normalement en droit d’attendre de leurs auteurs »[1],[2].
-Le prix a été créé par l'OMS sur proposition du gouvernement coréen en mémoire du Dr Lee Jong-wook le 14 avril 2008. Le conseil exécutif de l'OMS, composé du Président du Conseil exécutif de l'OMS; d'un représentant du fondateur du Prix et d'un membre du conseil[3], sélectionne les lauréats parmi les candidats proposés par les administrations nationales des pays.
+Le Prix Dr Lee Jong-wook pour la santé publique de l'Organisation mondiale de la santé, est remis « à une ou plusieurs personnes, institutions, organisations gouvernementales ou non gouvernementales ayant apporté une contribution exceptionnelle à la santé publique. Le Prix récompense des travaux dépassant de loin ce qu’on était normalement en droit d’attendre de leurs auteurs »,.
+Le prix a été créé par l'OMS sur proposition du gouvernement coréen en mémoire du Dr Lee Jong-wook le 14 avril 2008. Le conseil exécutif de l'OMS, composé du Président du Conseil exécutif de l'OMS; d'un représentant du fondateur du Prix et d'un membre du conseil, sélectionne les lauréats parmi les candidats proposés par les administrations nationales des pays.
 Le prix est remis à l'Assemblée mondiale de la santé une fois par an, accompagné d'une plaque commémorative et d'une dotation remise par le représentant fondateur du prix.
 </t>
         </is>
@@ -516,20 +528,195 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2014
-Sinata Koulla-Shiro au Cameroun, pour son plan de lutte contre le VIH/sida au Cameroun, l'accès aux antirétroviraux et aux medicaments génériques via le programme ACCESS et des laboratoires indiens[4].
-La Société tchèque de cardiologie (République tchèque) représentée par son secrétaire scientifique, le professeur Jaromir Hradec, pour via un autre protocole : le transport du patient vers une unité spécialisée au lieu de l’hôpital local, contribué à la baisse de 35 à 5 % du taux de mortalité cardiovasculaire[5],[6],[7].
-2013
-Dr An Dong (République populaire de Chine)[8]
-La Société du diabète des Maldives, représentée par Aishath Shiruhana[8]
-2012
-Pacific Leprosy Foundation (Nouvelle-Zélande) pour ses travaux visant à l’élimination de la lèpre[9],[10].
-2011
-Institut Clodomiro Picado (Costa Rica) pour sa contribution à la lutte contre les maladies tropicales négligées[11].
-2010
-Action for AIDS (Singapour) pour sa contribution dans la lutte contre VIH/sida (recherche, traitement, prevention)[12]
-2009
-Centre de recherche sur les maladies infectieuses, le sida et l’immunologie clinique (Géorgie) pour sa contribution dans la recherche, le traitement et la lutte contre le VIH/sida[13].</t>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sinata Koulla-Shiro au Cameroun, pour son plan de lutte contre le VIH/sida au Cameroun, l'accès aux antirétroviraux et aux medicaments génériques via le programme ACCESS et des laboratoires indiens.
+La Société tchèque de cardiologie (République tchèque) représentée par son secrétaire scientifique, le professeur Jaromir Hradec, pour via un autre protocole : le transport du patient vers une unité spécialisée au lieu de l’hôpital local, contribué à la baisse de 35 à 5 % du taux de mortalité cardiovasculaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dr An Dong (République populaire de Chine)
+La Société du diabète des Maldives, représentée par Aishath Shiruhana</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pacific Leprosy Foundation (Nouvelle-Zélande) pour ses travaux visant à l’élimination de la lèpre,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Institut Clodomiro Picado (Costa Rica) pour sa contribution à la lutte contre les maladies tropicales négligées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Action for AIDS (Singapour) pour sa contribution dans la lutte contre VIH/sida (recherche, traitement, prevention)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Dr_Lee_Jong-wook</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Centre de recherche sur les maladies infectieuses, le sida et l’immunologie clinique (Géorgie) pour sa contribution dans la recherche, le traitement et la lutte contre le VIH/sida.</t>
         </is>
       </c>
     </row>
